--- a/Test Files/testSuiteMasterFiles/mokam/SampleTestSuite.xlsx
+++ b/Test Files/testSuiteMasterFiles/mokam/SampleTestSuite.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikhiljustus/Katalon Studio/CDS App/Test Files/testSuiteMasterFiles/mokam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikhiljustus/Katalon Studio/CDS App/Test Files/TestSuiteMasterFiles/Mokam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958F96FB-B532-8643-98BA-D40D37267419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3892BF7-88D7-C543-8AB1-197944FF75CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15140" xr2:uid="{F1751827-A492-9042-90C0-120D0D32703F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="a" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>TestCase</t>
   </si>
@@ -107,6 +108,9 @@
   </si>
   <si>
     <t>Invalid</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
 </sst>
 </file>
@@ -461,7 +465,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -586,4 +590,24 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0BD66B-DD0E-E944-BBB0-DC116204C79F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test Files/testSuiteMasterFiles/mokam/SampleTestSuite.xlsx
+++ b/Test Files/testSuiteMasterFiles/mokam/SampleTestSuite.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikhiljustus/Katalon Studio/CDS App/Test Files/TestSuiteMasterFiles/Mokam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikhiljustus/Katalon Studio/CDS App/Test Files/testSuiteMasterFiles/mokam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3892BF7-88D7-C543-8AB1-197944FF75CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98999D8-29A5-AB49-A176-FE10C9402A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15140" xr2:uid="{F1751827-A492-9042-90C0-120D0D32703F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>TestCase</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>Module</t>
@@ -465,7 +462,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -478,19 +475,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -498,19 +495,19 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -518,19 +515,19 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -538,19 +535,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -558,19 +555,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +601,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Test Files/testSuiteMasterFiles/mokam/SampleTestSuite.xlsx
+++ b/Test Files/testSuiteMasterFiles/mokam/SampleTestSuite.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikhiljustus/Katalon Studio/CDS App/Test Files/testSuiteMasterFiles/mokam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikhiljustus/Katalon Studio/CDS App/Test Files/TestSuiteMasterFiles/Mokam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98999D8-29A5-AB49-A176-FE10C9402A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715E7F0A-58AD-C74A-81AF-96FEE7FB99BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15140" xr2:uid="{F1751827-A492-9042-90C0-120D0D32703F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F1751827-A492-9042-90C0-120D0D32703F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>TestCase</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>data</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -462,7 +465,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -544,7 +547,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>

--- a/Test Files/testSuiteMasterFiles/mokam/SampleTestSuite.xlsx
+++ b/Test Files/testSuiteMasterFiles/mokam/SampleTestSuite.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikhiljustus/Katalon Studio/CDS App/Test Files/testSuiteMasterFiles/mokam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikhiljustus/Katalon Studio/CDS App/Test Files/TestSuiteMasterFiles/Mokam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98999D8-29A5-AB49-A176-FE10C9402A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D899AED2-534B-F64A-A36A-1C5646A5235C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15140" xr2:uid="{F1751827-A492-9042-90C0-120D0D32703F}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="15140" xr2:uid="{F1751827-A492-9042-90C0-120D0D32703F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="a" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>TestCase</t>
   </si>
@@ -105,9 +104,6 @@
   </si>
   <si>
     <t>Invalid</t>
-  </si>
-  <si>
-    <t>data</t>
   </si>
 </sst>
 </file>
@@ -462,7 +458,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -587,24 +583,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0BD66B-DD0E-E944-BBB0-DC116204C79F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>